--- a/teaching/traditional_assets/database/data/bahamas/bahamas_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/bahamas/bahamas_precious_metals.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="M2">
-        <v>0.16</v>
+        <v>0.109</v>
       </c>
       <c r="N2">
-        <v>0.007511737089201878</v>
+        <v>0.002379912663755459</v>
       </c>
       <c r="O2">
-        <v>0.06530612244897958</v>
+        <v>0.05093457943925234</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.16</v>
+        <v>0.109</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>4.61</v>
+        <v>5.8</v>
       </c>
       <c r="V2">
-        <v>0.2164319248826291</v>
+        <v>0.1266375545851529</v>
       </c>
       <c r="W2">
-        <v>0.5147058823529412</v>
+        <v>0.3031161473087819</v>
       </c>
       <c r="X2">
-        <v>0.09278776032871291</v>
+        <v>0.07543308296429375</v>
       </c>
       <c r="Y2">
-        <v>0.4219181220242283</v>
+        <v>0.2276830643444882</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.5968586387434556</v>
+        <v>0.7734038193590691</v>
       </c>
       <c r="AB2">
-        <v>0.09278776032871291</v>
+        <v>0.07543308296429375</v>
       </c>
       <c r="AC2">
-        <v>0.5040708784147426</v>
+        <v>0.6979707363947754</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-4.61</v>
+        <v>-5.8</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -663,25 +663,25 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.2762133013780707</v>
+        <v>-0.145</v>
       </c>
       <c r="AK2">
-        <v>-2.328282828282829</v>
+        <v>-1.611111111111111</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.016</v>
+        <v>-0.048</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-3.573643410852713</v>
+        <v>-2.735849056603773</v>
       </c>
       <c r="AQ2">
-        <v>-71.24999999999999</v>
+        <v>-41.04166666666666</v>
       </c>
     </row>
     <row r="3">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="M3">
-        <v>0.16</v>
+        <v>0.109</v>
       </c>
       <c r="N3">
-        <v>0.007511737089201878</v>
+        <v>0.002379912663755459</v>
       </c>
       <c r="O3">
-        <v>0.06530612244897958</v>
+        <v>0.05093457943925234</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -722,37 +722,37 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.16</v>
+        <v>0.109</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>4.61</v>
+        <v>5.8</v>
       </c>
       <c r="V3">
-        <v>0.2164319248826291</v>
+        <v>0.1266375545851529</v>
       </c>
       <c r="W3">
-        <v>0.5147058823529412</v>
+        <v>0.3031161473087819</v>
       </c>
       <c r="X3">
-        <v>0.09278776032871291</v>
+        <v>0.07543308296429375</v>
       </c>
       <c r="Y3">
-        <v>0.4219181220242283</v>
+        <v>0.2276830643444882</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.5968586387434556</v>
+        <v>0.7734038193590691</v>
       </c>
       <c r="AB3">
-        <v>0.09278776032871291</v>
+        <v>0.07543308296429375</v>
       </c>
       <c r="AC3">
-        <v>0.5040708784147426</v>
+        <v>0.6979707363947754</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-4.61</v>
+        <v>-5.8</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -773,25 +773,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2762133013780707</v>
+        <v>-0.145</v>
       </c>
       <c r="AK3">
-        <v>-2.328282828282829</v>
+        <v>-1.611111111111111</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.016</v>
+        <v>-0.048</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.573643410852713</v>
+        <v>-2.735849056603773</v>
       </c>
       <c r="AQ3">
-        <v>-71.24999999999999</v>
+        <v>-41.04166666666666</v>
       </c>
     </row>
   </sheetData>
